--- a/project/phase2/Work breakdown structure.xlsx
+++ b/project/phase2/Work breakdown structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campusfctunlpt-my.sharepoint.com/personal/dfg_dias_campusfctunlpt_onmicrosoft_com/Documents/Engenharia Informática/Engenharia informática/ES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7ABDB5-6E57-4020-8A3D-BDEBB96E901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71D9B02-1974-4C84-8FEF-69AB164B0F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B71C8632-9B25-49D5-A392-71B5EF895C2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>List of Tasks</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Tiago</t>
   </si>
   <si>
-    <t>3 patterns</t>
-  </si>
-  <si>
-    <t>3 reviews</t>
-  </si>
-  <si>
     <t>Afonso</t>
   </si>
   <si>
@@ -72,6 +66,27 @@
   </si>
   <si>
     <t>Create email button</t>
+  </si>
+  <si>
+    <t>Simple e-mail feature</t>
+  </si>
+  <si>
+    <t>Complete e-mail feature</t>
+  </si>
+  <si>
+    <t>fix e-mail feature bugs</t>
+  </si>
+  <si>
+    <t>Create trash button</t>
+  </si>
+  <si>
+    <t>Create the "task" data structures</t>
+  </si>
+  <si>
+    <t>Simple "trash" feature working</t>
+  </si>
+  <si>
+    <t>Add any graphic functionalities related to the "trash" feature still remaining.</t>
   </si>
 </sst>
 </file>
@@ -437,89 +452,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48C0A48-6CF9-4683-8DE6-651F11610546}">
-  <dimension ref="B4:J9"/>
+  <dimension ref="B4:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="25.6328125" customWidth="1"/>
     <col min="4" max="4" width="60.6328125" customWidth="1"/>
-    <col min="5" max="10" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
+    <col min="8" max="8" width="65.26953125" customWidth="1"/>
+    <col min="9" max="10" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/project/phase2/Work breakdown structure.xlsx
+++ b/project/phase2/Work breakdown structure.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71D9B02-1974-4C84-8FEF-69AB164B0F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115C646-A9CF-4E90-86BF-A1CDCDFE4BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B71C8632-9B25-49D5-A392-71B5EF895C2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B71C8632-9B25-49D5-A392-71B5EF895C2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sprint4" sheetId="1" r:id="rId4"/>
+    <sheet name="Sprint5" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprint6" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
-  <si>
-    <t>List of Tasks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>Tiago</t>
   </si>
@@ -71,9 +73,6 @@
     <t>Simple e-mail feature</t>
   </si>
   <si>
-    <t>Complete e-mail feature</t>
-  </si>
-  <si>
     <t>fix e-mail feature bugs</t>
   </si>
   <si>
@@ -83,10 +82,118 @@
     <t>Create the "task" data structures</t>
   </si>
   <si>
-    <t>Simple "trash" feature working</t>
-  </si>
-  <si>
     <t>Add any graphic functionalities related to the "trash" feature still remaining.</t>
+  </si>
+  <si>
+    <t>List of Tasks (Sprint 1)</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>List of Tasks (Sprint 5)</t>
+  </si>
+  <si>
+    <t>List of Tasks (Sprint 6)</t>
+  </si>
+  <si>
+    <t>All members</t>
+  </si>
+  <si>
+    <t>Create Use Cases</t>
+  </si>
+  <si>
+    <t>Collect Metrics</t>
+  </si>
+  <si>
+    <t>Update Repository</t>
+  </si>
+  <si>
+    <t>Write Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Review artefacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Code task restoration</t>
+  </si>
+  <si>
+    <t>Bugfix email</t>
+  </si>
+  <si>
+    <t>Improve trash graphical interface</t>
+  </si>
+  <si>
+    <t>Improve email graphical interface</t>
+  </si>
+  <si>
+    <t>Refactor email code</t>
+  </si>
+  <si>
+    <t>Refactor trash code</t>
+  </si>
+  <si>
+    <t>Refactor trash documentation</t>
+  </si>
+  <si>
+    <t>Refactor email documentation</t>
+  </si>
+  <si>
+    <t>Study the code</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>BurnDown chart</t>
+  </si>
+  <si>
+    <t>Work breakdown structure</t>
+  </si>
+  <si>
+    <t>Scrum board</t>
+  </si>
+  <si>
+    <t>Sprint backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>Debate features with colleagues</t>
+  </si>
+  <si>
+    <t>Scrum master log</t>
+  </si>
+  <si>
+    <t>Read code</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Create user stories</t>
+  </si>
+  <si>
+    <t>Discuss features with the teachers</t>
+  </si>
+  <si>
+    <t>Install GanttProject</t>
   </si>
 </sst>
 </file>
@@ -102,18 +209,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -134,15 +235,185 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,8 +426,92 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F70B8317-D44D-4B51-B630-9AE2A6144833}" name="Table15" displayName="Table15" ref="B2:C7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B2:C7" xr:uid="{F70B8317-D44D-4B51-B630-9AE2A6144833}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3BB460A3-C0FC-4BD3-B16D-2457D2F63AE1}" name="Names" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AE497885-62F1-47D7-919D-0C8D9902930A}" name="List of Tasks (Sprint 1)" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{086E6AE1-E779-44D1-89EA-5D8E1962E9D7}" name="Table5" displayName="Table5" ref="B2:I7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="B2:I7" xr:uid="{086E6AE1-E779-44D1-89EA-5D8E1962E9D7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{1C9E82F8-7160-4959-890C-44E9B3A3D3A8}" name="Names" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6C3D1FDA-15D5-4CF9-9A56-92363F9387EA}" name="Sprint 2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{F57EADD7-34D9-49EA-9962-8C989198AC8A}" name=" " dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4F4DA938-4E6A-4513-896F-343844F65C7A}" name="  " dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2BE45346-4E23-4F4A-A5F2-17DBC5E137AA}" name="   " dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{DD5ECC32-A31E-4535-97E7-16FBB7FC266B}" name="    " dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{BFF42B01-13FA-4519-B096-B1BB79E548B1}" name="      " dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B89BA4AA-1E0C-48FA-84BD-3B5D74E783AC}" name="          " dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E3C3AEA0-D621-43FB-94D8-F04819298B55}" name="Table57" displayName="Table57" ref="B2:G7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B2:G7" xr:uid="{E3C3AEA0-D621-43FB-94D8-F04819298B55}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E64BAD50-E668-4631-B650-C04860DE7BA0}" name="Names" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D9947701-883E-422E-B213-C971312A634E}" name="Sprint 3" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CEEA8E7E-3F9A-4EE5-8C46-533D2AE1C34E}" name=" " dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{11C60ABB-0832-462E-A684-5F7C606A212F}" name="  " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6E0D38D3-BAEE-45F1-AEF8-35D588014190}" name="   " dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{379448B2-9DCE-41CA-AC76-F6C745BB5F4D}" name="    " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A2FFC8-A7DC-43F7-A6DA-2B9B04E4AB19}" name="Table1" displayName="Table1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B4:E9" xr:uid="{E1A2FFC8-A7DC-43F7-A6DA-2B9B04E4AB19}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{15A38206-43BD-48A6-B0F8-1FF500F4755D}" name="Names" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{D84CC0B8-A683-41B0-88C2-E4A4AB121724}" name="List of Tasks (Sprint 5)" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B24BE76B-BBC4-472B-B540-57A3A8E0BA38}" name=" " dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3832C265-5B56-499C-B4C2-61F4491F249D}" name="  " dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D63C2E60-92BC-4FD8-A431-555CDF2C79E6}" name="Table13" displayName="Table13" ref="B2:E7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B2:E7" xr:uid="{D63C2E60-92BC-4FD8-A431-555CDF2C79E6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DA093939-8773-462D-B6DB-87C02100395D}" name="Names" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{C2599B14-3E5F-49CE-982F-D9046ED6861E}" name="List of Tasks (Sprint 5)" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{B260EABA-41C8-4BE2-903C-1E9897133982}" name=" " dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{93997D36-2AA4-4EBB-873F-9CC99C9E44E8}" name="  " dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD25ACFD-B44E-4072-8683-25F5BC42E49A}" name="Table134" displayName="Table134" ref="B2:G8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B2:G8" xr:uid="{FD25ACFD-B44E-4072-8683-25F5BC42E49A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{855EFE5A-3A9F-4FA6-94F1-3F2E22744ADE}" name="Names" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5D17E76B-7FFD-4527-8D8D-4020AAF32356}" name="List of Tasks (Sprint 6)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{60FAC11F-E7CC-4F02-8252-9D11791BD1CA}" name=" " dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{D56B1C93-B883-4680-9A98-5805D94020DA}" name="  " dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{31C065CE-9A8B-43FA-9D69-5AF0F30C2DD4}" name="   " dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{3B6DCD97-838D-41B7-B07F-D644069FC5D2}" name="    " dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,145 +806,731 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48C0A48-6CF9-4683-8DE6-651F11610546}">
-  <dimension ref="B4:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78003DE1-EDE9-45B8-BD70-6A3A97465E3D}">
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="60.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" customWidth="1"/>
-    <col min="8" max="8" width="65.26953125" customWidth="1"/>
-    <col min="9" max="10" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF83C31-46B4-49AF-BCE4-B1BB211C6857}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="B2:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859901E2-DC2C-4981-9575-D8C85F549524}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48C0A48-6CF9-4683-8DE6-651F11610546}">
+  <dimension ref="B4:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" customWidth="1"/>
+    <col min="8" max="8" width="65.21875" customWidth="1"/>
+    <col min="9" max="10" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9638D-9E28-47B1-82C4-4279BA5E5A94}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD02DAD-79D6-407E-96FA-0E716309475E}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>